--- a/Freelancing/Samnang_BugetPlan.xlsx
+++ b/Freelancing/Samnang_BugetPlan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A315E75-10FA-4984-AC75-E7C5C0DA29B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B1CD9C-88C1-43C2-B389-CC441CA72BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="600" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profit and loss statement" sheetId="1" r:id="rId1"/>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>Lease/loan payments</t>
-  </si>
-  <si>
-    <t>Rent and rates</t>
   </si>
   <si>
     <t>Motor vehicle expenses</t>
@@ -400,6 +397,9 @@
 Copies of the latest version of this spreadsheet can be downloaded from www.business.gov.au.  
 If you need further information, assistance or referral for a small business issue, please contact us on 13 28 46.</t>
     </r>
+  </si>
+  <si>
+    <t>Rent for an office</t>
   </si>
 </sst>
 </file>
@@ -627,6 +627,8 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -636,8 +638,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1002,8 +1002,8 @@
   </sheetPr>
   <dimension ref="A2:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1021,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1172,7 +1172,7 @@
     <row r="7" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -1195,7 +1195,7 @@
     <row r="8" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="9">
         <f>D5-D6-D7</f>
@@ -1606,54 +1606,54 @@
     <row r="18" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="17" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D18" s="18">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="E18" s="18">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="F18" s="18">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="G18" s="18">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="H18" s="18">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="I18" s="18">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="J18" s="18">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="K18" s="18">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="L18" s="18">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="M18" s="18">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="N18" s="18">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="O18" s="18">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="P18" s="9">
         <f t="shared" si="8"/>
-        <v>4800</v>
+        <v>36000</v>
       </c>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="18">
         <v>300</v>
@@ -1700,7 +1700,7 @@
     <row r="20" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="18">
         <v>400</v>
@@ -1747,7 +1747,7 @@
     <row r="21" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="18">
         <v>500</v>
@@ -1794,7 +1794,7 @@
     <row r="22" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="18">
         <v>160</v>
@@ -1841,7 +1841,7 @@
     <row r="23" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -1884,7 +1884,7 @@
     <row r="24" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -1927,7 +1927,7 @@
     <row r="25" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -1970,7 +1970,7 @@
     <row r="26" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -1993,118 +1993,118 @@
     <row r="27" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="9">
         <f>SUM(D10:D26)</f>
-        <v>18707</v>
+        <v>21307</v>
       </c>
       <c r="E27" s="9">
         <f t="shared" ref="E27:O27" si="9">SUM(E10:E26)</f>
-        <v>23707</v>
+        <v>26307</v>
       </c>
       <c r="F27" s="9">
         <f t="shared" si="9"/>
-        <v>39707</v>
+        <v>42307</v>
       </c>
       <c r="G27" s="9">
         <f t="shared" si="9"/>
-        <v>39707</v>
+        <v>42307</v>
       </c>
       <c r="H27" s="9">
         <f t="shared" si="9"/>
-        <v>39707</v>
+        <v>42307</v>
       </c>
       <c r="I27" s="9">
         <f t="shared" si="9"/>
-        <v>39707</v>
+        <v>42307</v>
       </c>
       <c r="J27" s="9">
         <f t="shared" si="9"/>
-        <v>39707</v>
+        <v>42307</v>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="9"/>
-        <v>39707</v>
+        <v>42307</v>
       </c>
       <c r="L27" s="9">
         <f t="shared" si="9"/>
-        <v>39707</v>
+        <v>42307</v>
       </c>
       <c r="M27" s="9">
         <f t="shared" si="9"/>
-        <v>39707</v>
+        <v>42307</v>
       </c>
       <c r="N27" s="9">
         <f t="shared" si="9"/>
-        <v>39707</v>
+        <v>42307</v>
       </c>
       <c r="O27" s="9">
         <f t="shared" si="9"/>
-        <v>39707</v>
+        <v>42307</v>
       </c>
       <c r="P27" s="9">
         <f t="shared" si="8"/>
-        <v>439484</v>
+        <v>470684</v>
       </c>
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="2:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="9">
         <f>D8-D27</f>
-        <v>-3707</v>
+        <v>-6307</v>
       </c>
       <c r="E28" s="9">
         <f t="shared" ref="E28:O28" si="10">E8-E27</f>
-        <v>-8707</v>
+        <v>-11307</v>
       </c>
       <c r="F28" s="9">
         <f t="shared" si="10"/>
-        <v>-9707</v>
+        <v>-12307</v>
       </c>
       <c r="G28" s="9">
         <f t="shared" si="10"/>
-        <v>-9707</v>
+        <v>-12307</v>
       </c>
       <c r="H28" s="9">
         <f t="shared" si="10"/>
-        <v>-9707</v>
+        <v>-12307</v>
       </c>
       <c r="I28" s="9">
         <f t="shared" si="10"/>
-        <v>10293</v>
+        <v>7693</v>
       </c>
       <c r="J28" s="9">
         <f t="shared" si="10"/>
-        <v>10293</v>
+        <v>7693</v>
       </c>
       <c r="K28" s="9">
         <f t="shared" si="10"/>
-        <v>30293</v>
+        <v>27693</v>
       </c>
       <c r="L28" s="9">
         <f t="shared" si="10"/>
-        <v>30293</v>
+        <v>27693</v>
       </c>
       <c r="M28" s="9">
         <f t="shared" si="10"/>
-        <v>50293</v>
+        <v>47693</v>
       </c>
       <c r="N28" s="9">
         <f t="shared" si="10"/>
-        <v>50293</v>
+        <v>47693</v>
       </c>
       <c r="O28" s="9">
         <f t="shared" si="10"/>
-        <v>50293</v>
+        <v>47693</v>
       </c>
       <c r="P28" s="9">
         <f>P8-P27</f>
-        <v>190516</v>
+        <v>159316</v>
       </c>
       <c r="Q28" s="2"/>
     </row>
@@ -2129,7 +2129,7 @@
     <row r="30" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
@@ -2149,7 +2149,7 @@
     <row r="31" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
@@ -2169,24 +2169,24 @@
     <row r="32" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="26">
+      <c r="D32" s="23">
         <f>SUM(D27:F27)</f>
-        <v>82121</v>
+        <v>89921</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="26">
+      <c r="F32" s="23">
         <f>SUM(G27:I27)</f>
-        <v>119121</v>
+        <v>126921</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="26">
+      <c r="H32" s="23">
         <f>SUM(J27:L27)</f>
-        <v>119121</v>
+        <v>126921</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="26">
+      <c r="J32" s="23">
         <f>SUM(M27:O27)</f>
-        <v>119121</v>
+        <v>126921</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -2197,19 +2197,19 @@
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D33" s="25">
+      <c r="D33" s="22">
         <f>SUM(D28:F28)</f>
-        <v>-22121</v>
-      </c>
-      <c r="F33" s="25">
+        <v>-29921</v>
+      </c>
+      <c r="F33" s="22">
         <f>SUM(G28:I28)</f>
-        <v>-9121</v>
-      </c>
-      <c r="H33" s="25">
+        <v>-16921</v>
+      </c>
+      <c r="H33" s="22">
         <f>SUM(J28:L28)</f>
-        <v>70879</v>
-      </c>
-      <c r="J33" s="25" cm="1">
+        <v>63079</v>
+      </c>
+      <c r="J33" s="22" cm="1">
         <f t="array" aca="1" ref="J33" ca="1">D18:O184= SUM(M28:O28)</f>
         <v>0</v>
       </c>
@@ -2250,18 +2250,18 @@
     </row>
     <row r="3" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="13"/>
-      <c r="C3" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="23"/>
+      <c r="C3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="25"/>
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="2:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="13"/>
-      <c r="C4" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="24"/>
+      <c r="C4" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="26"/>
       <c r="E4" s="13"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
